--- a/дз2. таблица тест-кейсов. Шевченко.xlsx
+++ b/дз2. таблица тест-кейсов. Шевченко.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79166\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79166\Documents\GitHub\MyFirst_Repo_Shev_QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C874E9A-D9E4-4110-AFD4-EF95B3C019AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB69A08D-22CD-468E-9E40-A5FFF01D833D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>passed</t>
   </si>
@@ -219,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +382,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -516,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -627,6 +636,27 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -636,27 +666,7 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1054,10 +1064,10 @@
   <dimension ref="A1:DT61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1101,7 +1111,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$42,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1146,7 +1156,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1273,43 +1283,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="45" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="43"/>
+      <c r="J6" s="50"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="49" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="49" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="42"/>
+      <c r="P6" s="49"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="42"/>
+      <c r="R6" s="49"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="42"/>
+      <c r="T6" s="49"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1319,29 +1329,29 @@
     </row>
     <row r="7" spans="1:124" ht="110.4" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="48"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="44"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="42"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="42"/>
+      <c r="N7" s="49"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="42"/>
+      <c r="P7" s="49"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="42"/>
+      <c r="R7" s="49"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="42"/>
+      <c r="T7" s="49"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1371,7 +1381,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1407,7 +1419,9 @@
       <c r="I9" s="28"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -1443,7 +1457,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="52" t="s">
+        <v>1</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -3010,12 +3026,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3023,6 +3033,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42" xr:uid="{00000000-0002-0000-0100-000000000000}">
